--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P36_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P36_trail1 Features.xlsx
@@ -4159,7 +4159,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.544097284086241</v>
+        <v>1.542498924912971</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.904776946988821</v>
@@ -4248,7 +4248,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.555546019652953</v>
+        <v>1.550937553741311</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.952623595822345</v>
@@ -4337,7 +4337,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.616536444694472</v>
+        <v>1.627330387431139</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.644851281118464</v>
@@ -4426,7 +4426,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.670192020121009</v>
+        <v>1.668734706265914</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.467043313125174</v>
@@ -4515,7 +4515,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.701660482380317</v>
+        <v>1.700427108044247</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.645406288288874</v>
@@ -4604,7 +4604,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.699301183722895</v>
+        <v>1.698162930653936</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.684233858565365</v>
@@ -4693,7 +4693,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.699640214332963</v>
+        <v>1.700750918727716</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.840145203523452</v>
@@ -4782,7 +4782,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.709086527199122</v>
+        <v>1.708032955906646</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.569835697357727</v>
@@ -4871,7 +4871,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.748282610276163</v>
+        <v>1.739278904710522</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.833684327150813</v>
@@ -4960,7 +4960,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.780608078717767</v>
+        <v>1.765599547673151</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.005391407806949</v>
@@ -5049,7 +5049,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.790791330932491</v>
+        <v>1.773905039535218</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.038699174228535</v>
@@ -5138,7 +5138,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.792426641195736</v>
+        <v>1.775094627146859</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.005188263077486</v>
@@ -5227,7 +5227,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.778258950449534</v>
+        <v>1.761542513333552</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.870715022011491</v>
@@ -5316,7 +5316,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.766913194348343</v>
+        <v>1.757538168519835</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.905707352507495</v>
@@ -5405,7 +5405,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.771332568733632</v>
+        <v>1.756745264965787</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.983795676746435</v>
@@ -5494,7 +5494,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.782567496408502</v>
+        <v>1.768534464071924</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.925418765808933</v>
@@ -5583,7 +5583,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.804947921131699</v>
+        <v>1.788920771398422</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.000871436449034</v>
@@ -5672,7 +5672,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.807648415626338</v>
+        <v>1.794205585707375</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.891685978281394</v>
@@ -5761,7 +5761,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.807284922042612</v>
+        <v>1.797203803687168</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.007281621504154</v>
@@ -5850,7 +5850,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.811171108355626</v>
+        <v>1.799759106995398</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.042657038783429</v>
@@ -5939,7 +5939,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.828056188348264</v>
+        <v>1.813099908484549</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.943685977738022</v>
@@ -6028,7 +6028,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.820192287825751</v>
+        <v>1.805957011878223</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.951134071773492</v>
@@ -6117,7 +6117,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.823903237224134</v>
+        <v>1.814013598440508</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.000899474570982</v>
@@ -6206,7 +6206,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.828761851955487</v>
+        <v>1.819888087793037</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.231046904489344</v>
@@ -6295,7 +6295,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.825876342165671</v>
+        <v>1.816066410056585</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.06305516568239</v>
@@ -6384,7 +6384,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.826449154158179</v>
+        <v>1.821358726451796</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.101301246748781</v>
@@ -6473,7 +6473,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.840604544363762</v>
+        <v>1.836864276700765</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.792680139282169</v>
@@ -6562,7 +6562,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.867253432368267</v>
+        <v>1.859996775555856</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.006787265233446</v>
@@ -6651,7 +6651,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.87634842860453</v>
+        <v>1.868994624532949</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.334333817849817</v>
@@ -6740,7 +6740,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.881010645738571</v>
+        <v>1.875309209386243</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.391617969182024</v>
@@ -6829,7 +6829,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.867426749613353</v>
+        <v>1.863573816789811</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.717741318177852</v>
@@ -6918,7 +6918,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.870245762405138</v>
+        <v>1.871787621511724</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.427967083648462</v>
@@ -7007,7 +7007,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.822546671936177</v>
+        <v>1.832105768141173</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.640417997054611</v>
@@ -7096,7 +7096,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.812470626307138</v>
+        <v>1.829618233767498</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.72667032219305</v>
@@ -7185,7 +7185,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.784565579647643</v>
+        <v>1.80135616741377</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.686271267301375</v>
@@ -7274,7 +7274,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.756297519724917</v>
+        <v>1.77588135076681</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.795839250232283</v>
@@ -7363,7 +7363,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.760578281246993</v>
+        <v>1.779454963407569</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.667175129540063</v>
@@ -7452,7 +7452,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.757497277356535</v>
+        <v>1.76867400188974</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.790335781786695</v>
@@ -7541,7 +7541,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.754839222502223</v>
+        <v>1.766376695699193</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.650218937792037</v>
@@ -7630,7 +7630,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.72174828171291</v>
+        <v>1.737549260677134</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.822653740760067</v>
@@ -7719,7 +7719,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.719164658353174</v>
+        <v>1.733727166222745</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.806278615223069</v>
@@ -7808,7 +7808,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.689025866537556</v>
+        <v>1.700839648448849</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.722594916442004</v>
@@ -8094,7 +8094,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.57047473110085</v>
+        <v>1.552512654076127</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.806479751613716</v>
@@ -8183,7 +8183,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.564328128461773</v>
+        <v>1.544847138453343</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.804770830773474</v>
@@ -8272,7 +8272,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.630868490545627</v>
+        <v>1.62866183166281</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.845183979319389</v>
@@ -8361,7 +8361,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.666631626850891</v>
+        <v>1.658189174203146</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.215910319055534</v>
@@ -8450,7 +8450,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.683406106498159</v>
+        <v>1.669241330937921</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.898957350119626</v>
@@ -8539,7 +8539,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.675874030321652</v>
+        <v>1.664331150151526</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.145115870391661</v>
@@ -8628,7 +8628,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.67612070303373</v>
+        <v>1.661321875557599</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.302769430240086</v>
@@ -8717,7 +8717,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.679561797645065</v>
+        <v>1.661644467428929</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.327287052167852</v>
@@ -8806,7 +8806,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.696591668974817</v>
+        <v>1.673293089133721</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.178581162621024</v>
@@ -8895,7 +8895,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.68716921394543</v>
+        <v>1.657130641305924</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.97124076651396</v>
@@ -8984,7 +8984,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.685331558183241</v>
+        <v>1.650541050464126</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.238543342297102</v>
@@ -9073,7 +9073,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.691989087209048</v>
+        <v>1.655433629085183</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.566668071632779</v>
@@ -9162,7 +9162,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.680603756011943</v>
+        <v>1.64652516156211</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.377369957556483</v>
@@ -9251,7 +9251,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.665701873760731</v>
+        <v>1.63760174536866</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.043770869879119</v>
@@ -9340,7 +9340,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.669004565869315</v>
+        <v>1.632353769580756</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.322013805073052</v>
@@ -9429,7 +9429,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.673792398115044</v>
+        <v>1.642276586816568</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.261730380518954</v>
@@ -9518,7 +9518,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.687565361704849</v>
+        <v>1.654792521185697</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.040477359852433</v>
@@ -9607,7 +9607,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.692082942010694</v>
+        <v>1.658869598444733</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.356429690920808</v>
@@ -9696,7 +9696,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.698356150862733</v>
+        <v>1.661635134618417</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.3499230101624</v>
@@ -9785,7 +9785,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.702463352279428</v>
+        <v>1.66347658059237</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.24582398477389</v>
@@ -9874,7 +9874,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.708793518895174</v>
+        <v>1.667123191361871</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.201126919922793</v>
@@ -9963,7 +9963,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.705012012285793</v>
+        <v>1.669069241619888</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.994812051243919</v>
@@ -10052,7 +10052,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.706407249706609</v>
+        <v>1.674152201498405</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.051093684083915</v>
@@ -10141,7 +10141,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.701913860314398</v>
+        <v>1.66969443501417</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.009934358291956</v>
@@ -10230,7 +10230,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.711498966475685</v>
+        <v>1.684053147291535</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.888860446325183</v>
@@ -10319,7 +10319,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.7324056130431</v>
+        <v>1.706953942304714</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.797295326482156</v>
@@ -10408,7 +10408,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.728387175332722</v>
+        <v>1.698464322022148</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.798981500699134</v>
@@ -10497,7 +10497,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.73506519327514</v>
+        <v>1.706622530550652</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.020613381914551</v>
@@ -10586,7 +10586,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.75415774086093</v>
+        <v>1.716424477132995</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.819938786939246</v>
@@ -10675,7 +10675,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.757320533694091</v>
+        <v>1.720205030199217</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.0766574886356</v>
@@ -10764,7 +10764,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.756814894149811</v>
+        <v>1.712418721239401</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.152574407761064</v>
@@ -10853,7 +10853,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.747888581886188</v>
+        <v>1.70472951578671</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.798567354583478</v>
@@ -10942,7 +10942,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.734108105338676</v>
+        <v>1.698786983831567</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.165260065376752</v>
@@ -11031,7 +11031,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.727842508872647</v>
+        <v>1.696244106387379</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.416524966224444</v>
@@ -11120,7 +11120,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.708810686538073</v>
+        <v>1.68902572829277</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.049288447510997</v>
@@ -11209,7 +11209,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.710805752602804</v>
+        <v>1.695397914960066</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.287626320516796</v>
@@ -11298,7 +11298,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.702002260421859</v>
+        <v>1.686906447895011</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.147661379548109</v>
@@ -11387,7 +11387,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.7019958159569</v>
+        <v>1.683377234687182</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.411124559015628</v>
@@ -11476,7 +11476,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.689079637214245</v>
+        <v>1.674526113013968</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.060217630187843</v>
@@ -11565,7 +11565,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.688692483932655</v>
+        <v>1.672528813156387</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.048211115956139</v>
@@ -11654,7 +11654,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.678394002113437</v>
+        <v>1.662717625785705</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.911880722239127</v>
@@ -11743,7 +11743,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.676393060970151</v>
+        <v>1.655261811715316</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.371716824589837</v>
@@ -12029,7 +12029,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.54869643632807</v>
+        <v>1.525556262741666</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.889888120893203</v>
@@ -12118,7 +12118,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.561549087411566</v>
+        <v>1.53659999317469</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.918480043568039</v>
@@ -12207,7 +12207,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.602953592161595</v>
+        <v>1.590692240786755</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.096149273674476</v>
@@ -12296,7 +12296,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.629788620676681</v>
+        <v>1.615686961519076</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.392210368907907</v>
@@ -12385,7 +12385,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.639521765004061</v>
+        <v>1.629951341837001</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.01778137778905</v>
@@ -12474,7 +12474,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.652208310615943</v>
+        <v>1.638193288584465</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.570940049313166</v>
@@ -12563,7 +12563,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.649281885767897</v>
+        <v>1.634496326714626</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.721433392658815</v>
@@ -12652,7 +12652,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.663871909287952</v>
+        <v>1.647188549361565</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.518441991406597</v>
@@ -12741,7 +12741,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.677097059213929</v>
+        <v>1.660439187870803</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.818060305225969</v>
@@ -12830,7 +12830,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.685073764026075</v>
+        <v>1.661556418221851</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.547851752091389</v>
@@ -12919,7 +12919,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.679343887603256</v>
+        <v>1.657406971418838</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.701328160958526</v>
@@ -13008,7 +13008,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.68273201296535</v>
+        <v>1.65807257731759</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.672909403371431</v>
@@ -13097,7 +13097,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.674851426206483</v>
+        <v>1.650848735408193</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.808036659114319</v>
@@ -13186,7 +13186,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.672899382666983</v>
+        <v>1.650168315974574</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.855266718599609</v>
@@ -13275,7 +13275,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.674779922435558</v>
+        <v>1.649825394635783</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.164920921628004</v>
@@ -13364,7 +13364,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.672321113886211</v>
+        <v>1.649694349075601</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.975637889686434</v>
@@ -13453,7 +13453,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.670289690314597</v>
+        <v>1.651662236718595</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.215316113268356</v>
@@ -13542,7 +13542,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.677918105930122</v>
+        <v>1.659672149017486</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.74487355802678</v>
@@ -13631,7 +13631,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.678328146475837</v>
+        <v>1.66122646352116</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.365167917989285</v>
@@ -13720,7 +13720,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.672284217354192</v>
+        <v>1.658249955043322</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.486680695156777</v>
@@ -13809,7 +13809,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.664580896421429</v>
+        <v>1.649499510907883</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.309374243155689</v>
@@ -13898,7 +13898,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.668803106168338</v>
+        <v>1.656011904275713</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.551427587646679</v>
@@ -13987,7 +13987,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.659805292125902</v>
+        <v>1.651473298243322</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.256340446793216</v>
@@ -14076,7 +14076,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.660048611113566</v>
+        <v>1.652500305381558</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.672742872505011</v>
@@ -14165,7 +14165,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.659217938649153</v>
+        <v>1.65402778270029</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.542462785389446</v>
@@ -14254,7 +14254,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.668992449383528</v>
+        <v>1.664000059778073</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.284928363339367</v>
@@ -14343,7 +14343,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.674185319599644</v>
+        <v>1.670845467199219</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.452903206237143</v>
@@ -14432,7 +14432,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.676856394447638</v>
+        <v>1.668187750293265</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.130599023237947</v>
@@ -14521,7 +14521,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.682209729148426</v>
+        <v>1.677529981637173</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.86355289244347</v>
@@ -14610,7 +14610,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.682711199136167</v>
+        <v>1.68354024031301</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.309444431231138</v>
@@ -14699,7 +14699,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.675834977379315</v>
+        <v>1.670893821327583</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.583096340888789</v>
@@ -14788,7 +14788,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.67656327857811</v>
+        <v>1.667596444318443</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.739725799873745</v>
@@ -14877,7 +14877,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.669907945184778</v>
+        <v>1.662869632926947</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.536746991342436</v>
@@ -14966,7 +14966,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.6686066612635</v>
+        <v>1.660501257829511</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.568839781662532</v>
@@ -15055,7 +15055,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.661176034705478</v>
+        <v>1.646933427696522</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.577180947274655</v>
@@ -15144,7 +15144,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.658772839619697</v>
+        <v>1.642391443064686</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.663925765169387</v>
@@ -15233,7 +15233,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.660563922302682</v>
+        <v>1.644084932866837</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.640636885222247</v>
@@ -15322,7 +15322,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.652812542210174</v>
+        <v>1.634930629943565</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.636690631978464</v>
@@ -15411,7 +15411,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.650702418925183</v>
+        <v>1.633561538984697</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.41030375958509</v>
@@ -15500,7 +15500,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.638445015071879</v>
+        <v>1.61491177876304</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.713061934586058</v>
@@ -15589,7 +15589,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.63741930751354</v>
+        <v>1.609114253952679</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.734640480231938</v>
@@ -15678,7 +15678,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.631351530527657</v>
+        <v>1.60126564861769</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.321921536992213</v>
@@ -15964,7 +15964,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.658026000243005</v>
+        <v>1.609233808451378</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.010596771853494</v>
@@ -16053,7 +16053,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.659526363275007</v>
+        <v>1.608405471036884</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.012363385242118</v>
@@ -16142,7 +16142,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.700818480227575</v>
+        <v>1.660754935091193</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.685425007833876</v>
@@ -16231,7 +16231,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.737446123223668</v>
+        <v>1.684817496960532</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.26395526665409</v>
@@ -16320,7 +16320,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.739807725588757</v>
+        <v>1.683165498871737</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.718755789878186</v>
@@ -16409,7 +16409,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.731984959655929</v>
+        <v>1.669107802874516</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.744225220723046</v>
@@ -16498,7 +16498,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.720634588079133</v>
+        <v>1.654543694109648</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.563588004145842</v>
@@ -16587,7 +16587,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.722445208606775</v>
+        <v>1.657341634905265</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.615200858596777</v>
@@ -16676,7 +16676,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.71889964800392</v>
+        <v>1.656518577420582</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.07743769162346</v>
@@ -16765,7 +16765,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.716629752365531</v>
+        <v>1.656734035151197</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.638847396624384</v>
@@ -16854,7 +16854,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.723555703458748</v>
+        <v>1.66469824880354</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.804442578928411</v>
@@ -16943,7 +16943,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.713169723627164</v>
+        <v>1.661841259197499</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.206918614298454</v>
@@ -17032,7 +17032,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.702538437682163</v>
+        <v>1.646983437133085</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.016955655347736</v>
@@ -17121,7 +17121,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.696118955947185</v>
+        <v>1.641900918290512</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.779947324028804</v>
@@ -17210,7 +17210,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.699481814095358</v>
+        <v>1.639489625441447</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.142976758557057</v>
@@ -17299,7 +17299,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.69986006285976</v>
+        <v>1.637624163516153</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.470873220257516</v>
@@ -17388,7 +17388,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.702345509601183</v>
+        <v>1.638594134113931</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.876023122911946</v>
@@ -17477,7 +17477,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.708095341644478</v>
+        <v>1.647239717444457</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.601799065172337</v>
@@ -17566,7 +17566,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.710576011558601</v>
+        <v>1.648502550653276</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.233293483227406</v>
@@ -17655,7 +17655,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.717750057274711</v>
+        <v>1.65868738524234</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.505055353425911</v>
@@ -17744,7 +17744,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.705365451150395</v>
+        <v>1.652458319549643</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.730333202793939</v>
@@ -17833,7 +17833,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.716968320498075</v>
+        <v>1.666607814345548</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.012305853918517</v>
@@ -17922,7 +17922,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.72005287132585</v>
+        <v>1.666519653069841</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.363961590356097</v>
@@ -18011,7 +18011,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.715470539884771</v>
+        <v>1.663848138342238</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.733466667893062</v>
@@ -18100,7 +18100,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.723605569157003</v>
+        <v>1.670443856677489</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.831379609700392</v>
@@ -18189,7 +18189,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.722920249338282</v>
+        <v>1.668818581459372</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.353347816264114</v>
@@ -18278,7 +18278,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.730707259716516</v>
+        <v>1.67369892459684</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.589996163192607</v>
@@ -18367,7 +18367,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.732664820088515</v>
+        <v>1.68095032656704</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.113051132893366</v>
@@ -18456,7 +18456,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.747160224529512</v>
+        <v>1.691527039685831</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.033498782214044</v>
@@ -18545,7 +18545,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.74245756035781</v>
+        <v>1.68262302820727</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.170328070830832</v>
@@ -18634,7 +18634,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.743054210709438</v>
+        <v>1.674280100231095</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.230787098512842</v>
@@ -18723,7 +18723,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.7367520744697</v>
+        <v>1.672162029766453</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.279161256387487</v>
@@ -18812,7 +18812,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.726667121652775</v>
+        <v>1.66488538538971</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.204866901205477</v>
@@ -18901,7 +18901,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.727738271151078</v>
+        <v>1.668181376323751</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.121843204726408</v>
@@ -18990,7 +18990,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.722714806137202</v>
+        <v>1.659086995942565</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.970605030046879</v>
@@ -19079,7 +19079,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.73769455852239</v>
+        <v>1.671961532507081</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.840009661052439</v>
@@ -19168,7 +19168,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.731746121517004</v>
+        <v>1.667662280660207</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.074086181697133</v>
@@ -19257,7 +19257,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.734887948137433</v>
+        <v>1.671746710427372</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.841640934896707</v>
@@ -19346,7 +19346,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.743821059007106</v>
+        <v>1.674651097881052</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.231004333699458</v>
@@ -19435,7 +19435,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.732981368885512</v>
+        <v>1.663463734432385</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.081722868869063</v>
@@ -19524,7 +19524,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.733413301491501</v>
+        <v>1.667795182271786</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.563761567469203</v>
@@ -19613,7 +19613,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.710986609775057</v>
+        <v>1.649888890283527</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.662640028864437</v>
@@ -19899,7 +19899,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.523899769960034</v>
+        <v>1.474942030421561</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.307934518568197</v>
@@ -19988,7 +19988,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.531462869027538</v>
+        <v>1.481881027593445</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.283722548766378</v>
@@ -20077,7 +20077,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.547958200745757</v>
+        <v>1.52702093077314</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.519507758488282</v>
@@ -20166,7 +20166,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.577843169816816</v>
+        <v>1.555981502093779</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.013069694574523</v>
@@ -20255,7 +20255,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.590624910366833</v>
+        <v>1.568155688541555</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.245527241871876</v>
@@ -20344,7 +20344,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.600221646564053</v>
+        <v>1.577021021540677</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.306367910610351</v>
@@ -20433,7 +20433,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.612282854203214</v>
+        <v>1.584723986997713</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.585724761439783</v>
@@ -20522,7 +20522,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.617891860417909</v>
+        <v>1.586967426957386</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.976022235709644</v>
@@ -20611,7 +20611,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.61495980333317</v>
+        <v>1.58835081598133</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.307085524496701</v>
@@ -20700,7 +20700,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.620854151269624</v>
+        <v>1.59291216340444</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.140710424456791</v>
@@ -20789,7 +20789,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.629560255929587</v>
+        <v>1.59886837602235</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.552326485725152</v>
@@ -20878,7 +20878,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.621654459458668</v>
+        <v>1.591818238892527</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.521814500511791</v>
@@ -20967,7 +20967,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.608941713462187</v>
+        <v>1.578022834477157</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.337826683732826</v>
@@ -21056,7 +21056,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.601532338395494</v>
+        <v>1.574725520982909</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.378181027664206</v>
@@ -21145,7 +21145,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.590748029584886</v>
+        <v>1.565251148679051</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.367156841279467</v>
@@ -21234,7 +21234,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.604415844935575</v>
+        <v>1.580024097302642</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.618610848608894</v>
@@ -21323,7 +21323,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.610749050293694</v>
+        <v>1.588075253944659</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.483353269225796</v>
@@ -21412,7 +21412,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.618029296053056</v>
+        <v>1.594738642788633</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.979483667199017</v>
@@ -21501,7 +21501,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.625612896473194</v>
+        <v>1.598963488873664</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.564228291625273</v>
@@ -21590,7 +21590,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.626086610456573</v>
+        <v>1.603058640320495</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.609952375902436</v>
@@ -21679,7 +21679,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.625355540864795</v>
+        <v>1.597910471170128</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.190829008055675</v>
@@ -21768,7 +21768,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.615021112314111</v>
+        <v>1.595181283880282</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.588617301440387</v>
@@ -21857,7 +21857,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.62024106550173</v>
+        <v>1.596922149684235</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.54428859170531</v>
@@ -21946,7 +21946,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.622539129555073</v>
+        <v>1.596645116354062</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.620886939024348</v>
@@ -22035,7 +22035,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.627152751766843</v>
+        <v>1.605755634478176</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.453942234563823</v>
@@ -22124,7 +22124,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.636691161311841</v>
+        <v>1.615446039485338</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.978276728209043</v>
@@ -22213,7 +22213,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.648862027468207</v>
+        <v>1.629323988424594</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.347426516711925</v>
@@ -22302,7 +22302,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.658544951743574</v>
+        <v>1.643863022129052</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.582629421821606</v>
@@ -22391,7 +22391,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.669996272583248</v>
+        <v>1.650196743444599</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.979349588276366</v>
@@ -22480,7 +22480,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.6753557321796</v>
+        <v>1.654263147454263</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.618880690873126</v>
@@ -22569,7 +22569,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.670943370489102</v>
+        <v>1.64131796661</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.029154266658473</v>
@@ -22658,7 +22658,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.673132429086151</v>
+        <v>1.641723092114155</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.988205397974945</v>
@@ -22747,7 +22747,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.66919406619863</v>
+        <v>1.641567940895621</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.897921097552617</v>
@@ -22836,7 +22836,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.672466437140804</v>
+        <v>1.644598259953026</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.708141570856867</v>
@@ -22925,7 +22925,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.657528753843387</v>
+        <v>1.632355298451937</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.402031679151132</v>
@@ -23014,7 +23014,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.667508339772758</v>
+        <v>1.645533194212051</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.827562189964512</v>
@@ -23103,7 +23103,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.653761327037286</v>
+        <v>1.63413029574271</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.176058686377613</v>
@@ -23192,7 +23192,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.652552417618088</v>
+        <v>1.62863915412457</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.290236399939194</v>
@@ -23281,7 +23281,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.643108570189657</v>
+        <v>1.625306311557906</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.319041261778192</v>
@@ -23370,7 +23370,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.646802868995593</v>
+        <v>1.622043415444738</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.283522019185805</v>
@@ -23459,7 +23459,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.643131670679601</v>
+        <v>1.620397990720102</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.113864771455281</v>
@@ -23548,7 +23548,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.634267931606466</v>
+        <v>1.606306847786672</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.192582658803472</v>
@@ -23834,7 +23834,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.421386440805265</v>
+        <v>1.344802798339142</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.441050317748589</v>
@@ -23923,7 +23923,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.439729644217513</v>
+        <v>1.357041732485114</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.443512136586936</v>
@@ -24012,7 +24012,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.546490802484342</v>
+        <v>1.553491551293223</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.230982501591876</v>
@@ -24101,7 +24101,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.627707928385927</v>
+        <v>1.629747610773873</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.512880441684516</v>
@@ -24190,7 +24190,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.663446560557009</v>
+        <v>1.665050305987268</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.869357281494658</v>
@@ -24279,7 +24279,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.666115784072661</v>
+        <v>1.666094433606727</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.639732831207938</v>
@@ -24368,7 +24368,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.654297761575313</v>
+        <v>1.660056901249396</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.80938301850789</v>
@@ -24457,7 +24457,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.658617432542035</v>
+        <v>1.661581542371855</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.5317206895695</v>
@@ -24546,7 +24546,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.693687592785881</v>
+        <v>1.698581711788582</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.832911172509752</v>
@@ -24635,7 +24635,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.73386889580365</v>
+        <v>1.734167269626112</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.784310350704855</v>
@@ -24724,7 +24724,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.74234175727663</v>
+        <v>1.744093793877616</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.68104830848071</v>
@@ -24813,7 +24813,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.742463509027988</v>
+        <v>1.742081295608883</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.846579884618287</v>
@@ -24902,7 +24902,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.711968909908431</v>
+        <v>1.706526621346005</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.55852247232969</v>
@@ -24991,7 +24991,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.700619903654516</v>
+        <v>1.704761539285271</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.481174987470699</v>
@@ -25080,7 +25080,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.706294807448488</v>
+        <v>1.711230050565426</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.61521963687668</v>
@@ -25169,7 +25169,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.713034386442785</v>
+        <v>1.722920151581189</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.607229100473822</v>
@@ -25258,7 +25258,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.737497743972635</v>
+        <v>1.745617015161612</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.660959534567163</v>
@@ -25347,7 +25347,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.738657522208327</v>
+        <v>1.749842872360108</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.644795760283007</v>
@@ -25436,7 +25436,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.742473081539203</v>
+        <v>1.752743512914718</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.709963721080741</v>
@@ -25525,7 +25525,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.74868332631023</v>
+        <v>1.75460025753896</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.569511791221801</v>
@@ -25614,7 +25614,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.757708415721467</v>
+        <v>1.75885433216661</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.67148439159763</v>
@@ -25703,7 +25703,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.75739133908415</v>
+        <v>1.764296832154779</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.661331667788513</v>
@@ -25792,7 +25792,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.753288474685208</v>
+        <v>1.763179582338788</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.583870342592651</v>
@@ -25881,7 +25881,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.746819553424128</v>
+        <v>1.755341873097889</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.522429880224076</v>
@@ -25970,7 +25970,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.747018741649115</v>
+        <v>1.753188972628772</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.717707348504374</v>
@@ -26059,7 +26059,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.744409452047656</v>
+        <v>1.749568414480129</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.641632371804756</v>
@@ -26148,7 +26148,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.746039386686459</v>
+        <v>1.752033537524647</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.532353883885432</v>
@@ -26237,7 +26237,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.789732651041274</v>
+        <v>1.791051660750218</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.94675265280025</v>
@@ -26326,7 +26326,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.801675940029974</v>
+        <v>1.797861202242503</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.133742608882412</v>
@@ -26415,7 +26415,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.804020770790692</v>
+        <v>1.799848674475563</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.123523031977725</v>
@@ -26504,7 +26504,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.800842208886854</v>
+        <v>1.794628950938019</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.305412186742465</v>
@@ -26593,7 +26593,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.805416718783557</v>
+        <v>1.797039372140657</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.278562893501953</v>
@@ -26682,7 +26682,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.760394189071681</v>
+        <v>1.755710891478814</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.531744792530915</v>
@@ -26771,7 +26771,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.753775856907641</v>
+        <v>1.75954411894248</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.622989257668469</v>
@@ -26860,7 +26860,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.728967062898408</v>
+        <v>1.736716563145153</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.485202448549087</v>
@@ -26949,7 +26949,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.706100796478306</v>
+        <v>1.718255661817873</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.463803819819225</v>
@@ -27038,7 +27038,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.69853255830303</v>
+        <v>1.707052762898373</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.681416323050757</v>
@@ -27127,7 +27127,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.701266284992403</v>
+        <v>1.70511764380273</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.548499210518655</v>
@@ -27216,7 +27216,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.70634358884978</v>
+        <v>1.710633287384851</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.553788820586206</v>
@@ -27305,7 +27305,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.671104754932892</v>
+        <v>1.676079116657375</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.593518388203226</v>
@@ -27394,7 +27394,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.667763252163821</v>
+        <v>1.67406530881803</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.811335570902543</v>
@@ -27483,7 +27483,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.656005349368163</v>
+        <v>1.656873557473839</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.582990806817253</v>
